--- a/04_Safety_helmet_vest_detection/Safety_helmet_vest_usbcam/exe/yolov3_Helmet_vest_detection/yolov3_Helmet_vest_detection_summary.xlsx
+++ b/04_Safety_helmet_vest_detection/Safety_helmet_vest_usbcam/exe/yolov3_Helmet_vest_detection/yolov3_Helmet_vest_detection_summary.xlsx
@@ -834,7 +834,7 @@
         <v>416</v>
       </c>
       <c r="S6" t="n">
-        <v>3985</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
@@ -900,7 +900,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/module_list.0/conv_0/Conv_output_0</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/module_list.1/conv_1/Conv_output_0</t>
+          <t>704</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/module_list.2/conv_2/Conv_output_0</t>
+          <t>707</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/module_list.3/conv_3/Conv_output_0</t>
+          <t>710</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/Add_output_0</t>
+          <t>457</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/module_list.5/conv_5/Conv_output_0</t>
+          <t>713</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/module_list.6/conv_6/Conv_output_0</t>
+          <t>716</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/module_list.7/conv_7/Conv_output_0</t>
+          <t>719</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/Add_1_output_0</t>
+          <t>467</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/module_list.9/conv_9/Conv_output_0</t>
+          <t>722</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/module_list.10/conv_10/Conv_output_0</t>
+          <t>725</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/Add_2_output_0</t>
+          <t>474</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/module_list.12/conv_12/Conv_output_0</t>
+          <t>728</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/module_list.13/conv_13/Conv_output_0</t>
+          <t>731</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/module_list.14/conv_14/Conv_output_0</t>
+          <t>734</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/Add_3_output_0</t>
+          <t>484</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/module_list.16/conv_16/Conv_output_0</t>
+          <t>737</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/module_list.17/conv_17/Conv_output_0</t>
+          <t>740</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/Add_4_output_0</t>
+          <t>491</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/module_list.19/conv_19/Conv_output_0</t>
+          <t>743</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/module_list.20/conv_20/Conv_output_0</t>
+          <t>746</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/Add_5_output_0</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/module_list.22/conv_22/Conv_output_0</t>
+          <t>749</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/module_list.23/conv_23/Conv_output_0</t>
+          <t>752</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/Add_6_output_0</t>
+          <t>505</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/module_list.25/conv_25/Conv_output_0</t>
+          <t>755</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/module_list.26/conv_26/Conv_output_0</t>
+          <t>758</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/Add_7_output_0</t>
+          <t>512</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/module_list.28/conv_28/Conv_output_0</t>
+          <t>761</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/module_list.29/conv_29/Conv_output_0</t>
+          <t>764</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/Add_8_output_0</t>
+          <t>519</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/module_list.31/conv_31/Conv_output_0</t>
+          <t>767</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/module_list.32/conv_32/Conv_output_0</t>
+          <t>770</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/Add_9_output_0</t>
+          <t>526</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/module_list.34/conv_34/Conv_output_0</t>
+          <t>773</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/module_list.35/conv_35/Conv_output_0</t>
+          <t>776</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/Add_10_output_0</t>
+          <t>533</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/module_list.37/conv_37/Conv_output_0</t>
+          <t>779</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/module_list.38/conv_38/Conv_output_0</t>
+          <t>782</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/module_list.39/conv_39/Conv_output_0</t>
+          <t>785</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/Add_11_output_0</t>
+          <t>543</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/module_list.41/conv_41/Conv_output_0</t>
+          <t>788</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/module_list.42/conv_42/Conv_output_0</t>
+          <t>791</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/Add_12_output_0</t>
+          <t>550</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/module_list.44/conv_44/Conv_output_0</t>
+          <t>794</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/module_list.45/conv_45/Conv_output_0</t>
+          <t>797</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/Add_13_output_0</t>
+          <t>557</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/module_list.47/conv_47/Conv_output_0</t>
+          <t>800</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/module_list.48/conv_48/Conv_output_0</t>
+          <t>803</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/Add_14_output_0</t>
+          <t>564</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/module_list.50/conv_50/Conv_output_0</t>
+          <t>806</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/module_list.51/conv_51/Conv_output_0</t>
+          <t>809</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/Add_15_output_0</t>
+          <t>571</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/module_list.53/conv_53/Conv_output_0</t>
+          <t>812</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/module_list.54/conv_54/Conv_output_0</t>
+          <t>815</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/Add_16_output_0</t>
+          <t>578</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/module_list.56/conv_56/Conv_output_0</t>
+          <t>818</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/module_list.57/conv_57/Conv_output_0</t>
+          <t>821</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/Add_17_output_0</t>
+          <t>585</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/module_list.59/conv_59/Conv_output_0</t>
+          <t>824</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/module_list.60/conv_60/Conv_output_0</t>
+          <t>827</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/Add_18_output_0</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/module_list.62/conv_62/Conv_output_0</t>
+          <t>830</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/module_list.63/conv_63/Conv_output_0</t>
+          <t>833</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/module_list.64/conv_64/Conv_output_0</t>
+          <t>836</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/Add_19_output_0</t>
+          <t>602</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/module_list.66/conv_66/Conv_output_0</t>
+          <t>839</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/module_list.67/conv_67/Conv_output_0</t>
+          <t>842</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/Add_20_output_0</t>
+          <t>609</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/module_list.69/conv_69/Conv_output_0</t>
+          <t>845</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/module_list.70/conv_70/Conv_output_0</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>/Add_21_output_0</t>
+          <t>616</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/module_list.72/conv_72/Conv_output_0</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/module_list.73/conv_73/Conv_output_0</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/Add_22_output_0</t>
+          <t>623</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/module_list.75/conv_75/Conv_output_0</t>
+          <t>857</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/module_list.76/conv_76/Conv_output_0</t>
+          <t>860</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/module_list.77/conv_77/Conv_output_0</t>
+          <t>863</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>/module_list.78/conv_78/Conv_output_0</t>
+          <t>866</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/module_list.79/conv_79/Conv_output_0</t>
+          <t>869</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>/module_list.80/conv_80/Conv_output_0</t>
+          <t>872</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>/module_list.84/conv_84/Conv_output_0</t>
+          <t>875</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>/module_list.85/upsample_85/Resize_output_0</t>
+          <t>651</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>/module_list.87/conv_87/Conv_output_0</t>
+          <t>878</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>/module_list.88/conv_88/Conv_output_0</t>
+          <t>881</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>/module_list.89/conv_89/Conv_output_0</t>
+          <t>884</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>/module_list.90/conv_90/Conv_output_0</t>
+          <t>887</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>/module_list.91/conv_91/Conv_output_0</t>
+          <t>890</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>/module_list.92/conv_92/Conv_output_0</t>
+          <t>893</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>/module_list.96/conv_96/Conv_output_0</t>
+          <t>896</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>/module_list.97/upsample_97/Resize_output_0</t>
+          <t>680</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>/module_list.99/conv_99/Conv_output_0</t>
+          <t>899</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>/module_list.100/conv_100/Conv_output_0</t>
+          <t>902</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>/module_list.101/conv_101/Conv_output_0</t>
+          <t>905</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>/module_list.102/conv_102/Conv_output_0</t>
+          <t>908</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>/module_list.103/conv_103/Conv_output_0</t>
+          <t>911</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>/module_list.104/conv_104/Conv_output_0</t>
+          <t>914</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>189131</v>
+        <v>186810</v>
       </c>
     </row>
     <row r="115">
